--- a/CI fellowship database.xlsx
+++ b/CI fellowship database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wd\OneDrive\PGY-4\Python作业\informatic fellowship application website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chengda\OneDrive\PGY-4\Python作业\informatic fellowship application website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{54AB0662-A8CA-4E2D-96DB-5625DF6D87DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{0DD8230A-BB28-4D67-8FA9-A4A1A7E97DC3}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{54AB0662-A8CA-4E2D-96DB-5625DF6D87DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{02290B02-B86D-46A8-8112-12070EA20665}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>Programs</t>
   </si>
@@ -380,6 +380,89 @@
   </si>
   <si>
     <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Baylor College of Medicine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Houston</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photograph</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>University at Buffalo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffalo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid Atlantic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>McGaw Medical Center of Northwestern University Program</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illinois</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC Davis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacramento</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>California</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massachusettes General Hospital</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>New England</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letter of Interest or Intent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pathology graduates only</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1227,18 +1310,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1291,13 +1374,22 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1346,14 +1438,14 @@
       <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>34.077630999999997</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>-118.380111</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1369,14 +1461,14 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>34.026888</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>-118.486644</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1425,14 +1517,14 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>37.439808999999997</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>-122.178026</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1448,14 +1540,14 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>33.787365999999999</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>-117.888767</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1507,14 +1599,14 @@
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>32.751382</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>-117.162128</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1563,14 +1655,14 @@
       <c r="Q7" t="b">
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>37.764462000000002</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>-122.45983099999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1619,14 +1711,14 @@
       <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>45.499597999999999</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>-122.684849</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1642,14 +1734,14 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>47.651116000000002</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>-122.30853399999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1665,14 +1757,14 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>47.109912000000001</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>-122.552081</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1718,14 +1810,14 @@
       <c r="Q11" t="b">
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>41.315888999999999</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>-72.936316000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1741,14 +1833,14 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>42.335470999999998</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>-71.073048999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1794,14 +1886,14 @@
       <c r="Q13" t="b">
         <v>0</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>42.337468999999999</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>-71.109826999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1817,14 +1909,14 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>40.790056</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>-73.953339999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1840,14 +1932,14 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>40.750304</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>-73.973982000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1863,14 +1955,14 @@
       <c r="E16" t="b">
         <v>1</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>40.764639000000003</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>-73.954318000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1886,14 +1978,14 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>40.970548999999998</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>-76.603520000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1942,14 +2034,14 @@
       <c r="Q18" t="b">
         <v>0</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>39.947830000000003</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>-75.195310000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1998,14 +2090,14 @@
       <c r="Q19" t="b">
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>41.788952000000002</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>-87.604248999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2021,14 +2113,14 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>39.782156000000001</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>-86.165210999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2044,14 +2136,14 @@
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>39.771374999999999</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>-84.062516000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -2076,14 +2168,14 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>41.461137000000001</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>-81.698797999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -2099,14 +2191,14 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>39.997394999999997</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>-83.016726000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -2158,14 +2250,14 @@
       <c r="Q24" t="b">
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>44.973528999999999</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>-93.261842000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -2217,14 +2309,14 @@
       <c r="Q25" t="b">
         <v>0</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>39.948886999999999</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>-75.157866999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2240,14 +2332,14 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>35.904189000000002</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>-79.051501999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2263,14 +2355,14 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>36.007705000000001</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>-78.938323999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -2286,14 +2378,14 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>38.032454000000001</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>-78.500663000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -2345,14 +2437,14 @@
       <c r="Q29" t="b">
         <v>0</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>36.142513999999998</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>-86.802595999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -2368,14 +2460,14 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>34.748961000000001</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>-92.320929000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -2391,14 +2483,14 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>31.559225999999999</v>
       </c>
-      <c r="S31">
+      <c r="V31">
         <v>-97.152905000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -2414,14 +2506,14 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>33.453499000000001</v>
       </c>
-      <c r="S32">
+      <c r="V32">
         <v>-112.065617</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -2452,14 +2544,14 @@
       <c r="Q33" t="b">
         <v>0</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>33.489047999999997</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>-111.923202</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -2475,14 +2567,14 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>35.090068000000002</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>-106.618067</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2534,14 +2626,14 @@
       <c r="Q35" t="b">
         <v>1</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <v>44.022564000000003</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>-92.466763</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -2557,14 +2649,14 @@
       <c r="E36" t="b">
         <v>1</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>40.909011</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>-73.114851999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -2580,14 +2672,14 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>29.710885999999999</v>
       </c>
-      <c r="S37">
+      <c r="V37">
         <v>-95.399568000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2639,14 +2731,14 @@
       <c r="Q38" t="b">
         <v>0</v>
       </c>
-      <c r="R38">
+      <c r="U38">
         <v>38.552584000000003</v>
       </c>
-      <c r="S38">
+      <c r="V38">
         <v>-121.451821</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -2662,14 +2754,14 @@
       <c r="E39" t="b">
         <v>1</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>41.870694</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>-87.672645000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -2685,11 +2777,162 @@
       <c r="E40" t="b">
         <v>0</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>29.507656000000001</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>-98.576418000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="S44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
